--- a/program/results/result_v040_lin_square_exp/analyze.xlsx
+++ b/program/results/result_v040_lin_square_exp/analyze.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="T1900_0_digital" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="T1900_1_digital" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="T1900_5_digital" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="T1900_21_digital" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="T1900_22_digital" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="T1900_23_digital" sheetId="5" state="visible" r:id="rId5"/>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-371.5148464460623</v>
+        <v>-142.3794451966335</v>
       </c>
     </row>
     <row r="2">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.231293024952599</v>
+        <v>0.08701511360335741</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.13969266982384</v>
+        <v>13.25466407740005</v>
       </c>
     </row>
     <row r="4">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3509862849523938</v>
+        <v>0.09597146617368102</v>
       </c>
     </row>
     <row r="5">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05563913560402423</v>
+        <v>0.07594090528158659</v>
       </c>
     </row>
   </sheetData>

--- a/program/results/result_v040_lin_square_exp/analyze.xlsx
+++ b/program/results/result_v040_lin_square_exp/analyze.xlsx
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-322.0871446857288</v>
+        <v>14.57161104679417</v>
       </c>
     </row>
     <row r="2">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2019494005714582</v>
+        <v>0.0102267825078344</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.8882314367298</v>
+        <v>6.172569764366369</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.326898219658431</v>
+        <v>0.01678511727505549</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005555230292538238</v>
+        <v>1.515133131979596e-05</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>45.10190614187025</v>
+        <v>424.1604612993717</v>
       </c>
     </row>
     <row r="2">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09538811371228656</v>
+        <v>0.3043755474518992</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.4742888091944</v>
+        <v>93.87757517826033</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2624229100405017</v>
+        <v>0.3818680306097368</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002454217385426616</v>
+        <v>0.03063157894577584</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-298.5453037180042</v>
+        <v>-10.64035884947043</v>
       </c>
     </row>
     <row r="2">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1849173541701428</v>
+        <v>0.02519657681044178</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.40009509521761</v>
+        <v>58.86545558240476</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2912978750414543</v>
+        <v>0.09255733404854205</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09255733404854205</v>
+        <v>0.0001257017249087777</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-258.9990136354432</v>
+        <v>50.6867309231308</v>
       </c>
     </row>
     <row r="2">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1619802641966987</v>
+        <v>0.03742830551198701</v>
       </c>
     </row>
     <row r="3">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.10340061158985</v>
+        <v>20.56465828568658</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.307351370140966</v>
+        <v>0.07447848904185905</v>
       </c>
     </row>
     <row r="5">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000453336576805019</v>
+        <v>0.01127418468763364</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-142.3794451966335</v>
+        <v>-34.58602248445774</v>
       </c>
     </row>
     <row r="2">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08701511360335741</v>
+        <v>0.01945592335446481</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.25466407740005</v>
+        <v>53.48985572564791</v>
       </c>
     </row>
     <row r="4">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09597146617368102</v>
+        <v>0.09597146622764074</v>
       </c>
     </row>
     <row r="5">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07594090528158659</v>
+        <v>0.00582122192098633</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-216.2690291752419</v>
+        <v>102.8742726148389</v>
       </c>
     </row>
     <row r="2">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1378788970993233</v>
+        <v>0.07321669321302846</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.0216874032269</v>
+        <v>8.219670653837078</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2770933193946766</v>
+        <v>0.1053543398230181</v>
       </c>
     </row>
     <row r="5">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002358559430005736</v>
+        <v>0.03063157894729374</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-304.1937562720025</v>
+        <v>-12.90358031512593</v>
       </c>
     </row>
     <row r="2">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1886849301635141</v>
+        <v>0.02505657311014793</v>
       </c>
     </row>
     <row r="3">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.61198066552206</v>
+        <v>42.14279981180719</v>
       </c>
     </row>
     <row r="4">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2955219274418696</v>
+        <v>0.05572647608625736</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05572647608625736</v>
+        <v>3.005498955266361e-05</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-272.786179084936</v>
+        <v>24.38080124369263</v>
       </c>
     </row>
     <row r="2">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1696815729963129</v>
+        <v>0.02720411931906082</v>
       </c>
     </row>
     <row r="3">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.53722568670793</v>
+        <v>36.18632612928662</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2610681594756492</v>
+        <v>0.07055523409125652</v>
       </c>
     </row>
     <row r="5">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03237902228083944</v>
+        <v>0.0001106043965450887</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-241.3525608451544</v>
+        <v>72.85707052404318</v>
       </c>
     </row>
     <row r="2">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.152085292360828</v>
+        <v>0.05217942596008149</v>
       </c>
     </row>
     <row r="3">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.70008506308744</v>
+        <v>11.13358752535494</v>
       </c>
     </row>
     <row r="4">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2770933193946766</v>
+        <v>0.08817466378633632</v>
       </c>
     </row>
     <row r="5">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0006203576465924066</v>
+        <v>0.03063157894736834</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-322.0514552857302</v>
+        <v>-31.10794995594962</v>
       </c>
     </row>
     <row r="2">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1994587915899591</v>
+        <v>0.02322887651505172</v>
       </c>
     </row>
     <row r="3">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.464090999777</v>
+        <v>57.39494015090467</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2922409251079328</v>
+        <v>0.1013453882263111</v>
       </c>
     </row>
     <row r="5">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1013453882263111</v>
+        <v>6.759017956181612e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-213.5581244136878</v>
+        <v>96.56240009320271</v>
       </c>
     </row>
     <row r="2">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.133987588362423</v>
+        <v>0.0704096955173949</v>
       </c>
     </row>
     <row r="3">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.5162858157135</v>
+        <v>27.03704331936559</v>
       </c>
     </row>
     <row r="4">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2549214285688395</v>
+        <v>0.1152227586724948</v>
       </c>
     </row>
     <row r="5">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.222025579776357e-05</v>
+        <v>0.01165400861058941</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-407.8554808194003</v>
+        <v>-122.5021841863683</v>
       </c>
     </row>
     <row r="2">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2521694637600407</v>
+        <v>0.08336141559549741</v>
       </c>
     </row>
     <row r="3">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.55269351136805</v>
+        <v>45.98208310364335</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3873736347475549</v>
+        <v>0.1179389953056666</v>
       </c>
     </row>
     <row r="5">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04701899380181684</v>
+        <v>0.01848244914305985</v>
       </c>
     </row>
   </sheetData>
